--- a/tablas modsim.xlsx
+++ b/tablas modsim.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\info\Escritorio\UVG\8vo Semestre\Modelacion y Sinulacion\Laboratorios\Lab 1\LAB1_MODSIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E01643-4481-48C9-9E54-BAE3D3BDBED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A955956-2358-4118-ACF0-5D481C602107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE9E0E87-D94F-4494-BC6C-274966F3F885}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9E0E87-D94F-4494-BC6C-274966F3F885}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="ejercicio 1" sheetId="2" r:id="rId1"/>
+    <sheet name="ejercicio 2" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>MES</t>
   </si>
@@ -66,13 +65,106 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Maximizar</t>
+  </si>
+  <si>
+    <t>Sujeto a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>x1 + 2x2 - 3x3 + 5x4</t>
+  </si>
+  <si>
+    <t>5x1 - 2x2 + 6x4</t>
+  </si>
+  <si>
+    <t>2x1 + 3x2 - 2x3 + 3x4</t>
+  </si>
+  <si>
+    <t>-x1 + x3 + 2x4</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>z = x1 + x2 + 3x + 2x</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x1 = 2</t>
+  </si>
+  <si>
+    <t>x2 = 1</t>
+  </si>
+  <si>
+    <t>x3 = 2</t>
+  </si>
+  <si>
+    <t>x4 = 0</t>
+  </si>
+  <si>
+    <t>z = 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +180,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Aptos Narrow&quot;"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -133,11 +261,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,9 +296,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{1E569170-8DD8-439A-92F7-207CEE617337}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,21 +645,1454 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2291C8F8-E2C2-4057-91E0-F53B9B13B8F3}">
+  <dimension ref="A2:U49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="9.875" customWidth="1"/>
+    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <f>K4/E4</f>
+        <v>-1.3333333333333333</v>
+      </c>
+      <c r="M4" s="20"/>
+      <c r="Q4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>8</v>
+      </c>
+      <c r="L5" t="e">
+        <f t="shared" ref="L5:L7" si="0">K5/E5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="20"/>
+      <c r="S5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5" t="s">
+        <v>18</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-1.5</v>
+      </c>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" ht="15">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3">
+        <f>B3-$E3*B$14</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="12">
+        <f>C3-$E3*C$14</f>
+        <v>-4</v>
+      </c>
+      <c r="D10" s="3">
+        <f t="shared" ref="C10:K10" si="1">D3-$E3*D$14</f>
+        <v>-1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3">
+        <f>B4-$E4*B$14</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="12">
+        <f t="shared" ref="C11:K11" si="2">C4-$E4*C$14</f>
+        <v>-2</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="19">
+        <f>K11/C11</f>
+        <v>-2</v>
+      </c>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" ht="15">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <f>B5-$E5*B$14</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:K12" si="3">C5-$E5*C$14</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="L12" s="19">
+        <f t="shared" ref="L12:M14" si="4">K12/C12</f>
+        <v>1.6</v>
+      </c>
+      <c r="M12" s="20"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B6-$E6*B$14</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="12">
+        <f>C6-$E6*C$14</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D6-$E6*D$14</f>
+        <v>3</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" ref="C13:K13" si="5">E6-$E6*E$14</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="L13" s="19" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="21"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="12">
+        <v>0</v>
+      </c>
+      <c r="C14" s="14">
+        <f>C7/$E7</f>
+        <v>-1</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" ref="D14:K14" si="6">D7/$E7</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="G14" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="M15" s="20"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="20"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B10-$C10*B$21</f>
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <f>C10-$C10*C$19</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" ref="D17:K17" si="7">D10-$C10*D$19</f>
+        <v>-2.6</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="7"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="7"/>
+        <v>6.4</v>
+      </c>
+      <c r="M17" s="20"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B11-$C11*B$21</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <f>C11-$C11*C$19</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" ref="D18:K18" si="8">D11-$C11*D$19</f>
+        <v>1.2</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="8"/>
+        <v>13.4</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="8"/>
+        <v>7.2</v>
+      </c>
+      <c r="L18" s="19">
+        <f>K18/D18</f>
+        <v>6</v>
+      </c>
+      <c r="M18" s="20"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3">
+        <f>B12-$C12*B$21</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <f>C12/$C12</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:K19" si="9">D12/$C12</f>
+        <v>-0.4</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" ref="L19:L21" si="10">K19/D19</f>
+        <v>-4</v>
+      </c>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3">
+        <f>B13-$C13*B$21</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="12">
+        <f>C13-$C13*C$19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" ref="D20:K20" si="11">D13-$C13*D$19</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="19">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="M20" s="20"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="12">
+        <f>B14/$C14</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="6">
+        <f>C14-$C14*C$19</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" ref="D21:K21" si="12">D14-$C14*D$19</f>
+        <v>-0.4</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="12"/>
+        <v>3.2</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="12"/>
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="12"/>
+        <v>1.6</v>
+      </c>
+      <c r="L21" s="19">
+        <f t="shared" si="10"/>
+        <v>-4</v>
+      </c>
+      <c r="M21" s="20"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="M22" s="20"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3">
+        <f>B17-$F17*B$28</f>
+        <v>1</v>
+      </c>
+      <c r="C24" s="6">
+        <f>C17-$D17*C27</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:K24" si="13">D17-$D17*D27</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="13"/>
+        <v>14.866666666666667</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="13"/>
+        <v>0.8</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="13"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="13"/>
+        <v>4.7333333333333334</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="M24" s="20"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="3">
+        <f>B18-$F18*B$28</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <f>C18-$D18*C$27</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:K25" si="14">D18-$D18*D$27</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="14"/>
+        <v>10.6</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="14"/>
+        <v>-0.39999999999999997</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="14"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="3">
+        <f>B19-$F19*B$28</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <f>C19-$D19*C$27</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:K26" si="15">D19-$D19*D$27</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="15"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="15"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="15"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="19"/>
+      <c r="M26" s="20"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="3">
+        <f>B20-$F20*B$28</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <f>C20/$D20</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" ref="D27:K27" si="16">D20/$D20</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="16"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="16"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="20"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="12">
+        <f>B21/$F21</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="15">
+        <f>C21-$D21*C$27</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" ref="D28:K28" si="17">D21-$D21*D$27</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="15">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="17"/>
+        <v>4.1333333333333337</v>
+      </c>
+      <c r="G28" s="15">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="15">
+        <f t="shared" si="17"/>
+        <v>0.2</v>
+      </c>
+      <c r="I28" s="15">
+        <f t="shared" si="17"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J28" s="15">
+        <f t="shared" si="17"/>
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="19"/>
+      <c r="M28" s="20"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="M29" s="20"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="M30" s="20"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="M31" s="20"/>
+    </row>
+    <row r="32" spans="1:13" ht="15">
+      <c r="A32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0ED6DB-DE6E-45E1-940A-0A5B29DB7513}">
   <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="8" width="11.6640625" customWidth="1"/>
+    <col min="2" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="6" max="8" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +2115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -545,7 +2132,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="3">
-        <f>B3*C3</f>
+        <f t="shared" ref="F3:F8" si="0">B3*C3</f>
         <v>10250</v>
       </c>
       <c r="G3" s="3">
@@ -553,7 +2140,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -570,15 +2157,15 @@
         <v>10</v>
       </c>
       <c r="F4" s="3">
-        <f>B4*C4</f>
+        <f t="shared" si="0"/>
         <v>10125</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G8" si="0">D4*E4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G4:G8" si="1">D4*E4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -595,15 +2182,15 @@
         <v>10</v>
       </c>
       <c r="F5" s="3">
-        <f>B5*C5</f>
+        <f t="shared" si="0"/>
         <v>10450</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -620,15 +2207,15 @@
         <v>10</v>
       </c>
       <c r="F6" s="3">
-        <f>B6*C6</f>
+        <f t="shared" si="0"/>
         <v>8320</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -645,15 +2232,15 @@
         <v>8</v>
       </c>
       <c r="F7" s="5">
-        <f>B7*C7</f>
+        <f t="shared" si="0"/>
         <v>10800</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -670,18 +2257,18 @@
         <v>8</v>
       </c>
       <c r="F8" s="3">
-        <f>B8*C8</f>
+        <f t="shared" si="0"/>
         <v>11250</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15">
       <c r="F9" s="6">
         <f>SUM(F3:F8)</f>
         <v>61195</v>
@@ -695,7 +2282,7 @@
         <v>61795</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="28.5">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -743,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -760,15 +2347,15 @@
         <v>10</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" ref="F14:F18" si="1">B14*C14</f>
+        <f t="shared" ref="F14:F18" si="2">B14*C14</f>
         <v>11250</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" ref="G14:G18" si="2">D14*E14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="G14:G18" si="3">D14*E14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>3</v>
       </c>
@@ -785,15 +2372,15 @@
         <v>10</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10450</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -810,15 +2397,15 @@
         <v>10</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7280</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2">
         <v>5</v>
       </c>
@@ -835,15 +2422,15 @@
         <v>8</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10560</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -860,18 +2447,18 @@
         <v>8</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12500</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15">
       <c r="F19" s="6">
         <f>SUM(F13:F18)</f>
         <v>61040</v>

--- a/tablas modsim.xlsx
+++ b/tablas modsim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI\Desktop\info\Escritorio\UVG\8vo Semestre\Modelacion y Sinulacion\Laboratorios\Lab 1\LAB1_MODSIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A955956-2358-4118-ACF0-5D481C602107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F62BA3-BC1D-4EC6-8E1A-8D4856819C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9E0E87-D94F-4494-BC6C-274966F3F885}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE9E0E87-D94F-4494-BC6C-274966F3F885}"/>
   </bookViews>
   <sheets>
     <sheet name="ejercicio 1" sheetId="2" r:id="rId1"/>
@@ -649,7 +649,7 @@
   <dimension ref="A2:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -988,7 +988,7 @@
         <v>-4</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="C10:K10" si="1">D3-$E3*D$14</f>
+        <f t="shared" ref="D10:K10" si="1">D3-$E3*D$14</f>
         <v>-1</v>
       </c>
       <c r="E10" s="3">
@@ -1075,7 +1075,7 @@
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="12">
         <f>B5-$E5*B$14</f>
         <v>0</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="19">
-        <f t="shared" ref="L12:M14" si="4">K12/C12</f>
+        <f t="shared" ref="L12:L14" si="4">K12/C12</f>
         <v>1.6</v>
       </c>
       <c r="M12" s="20"/>
@@ -1139,7 +1139,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" ref="C13:K13" si="5">E6-$E6*E$14</f>
+        <f t="shared" ref="E13:K13" si="5">E6-$E6*E$14</f>
         <v>0</v>
       </c>
       <c r="F13" s="3">
@@ -1176,7 +1176,7 @@
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="6">
         <v>0</v>
       </c>
       <c r="C14" s="14">
@@ -1408,7 +1408,7 @@
       <c r="A20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="12">
         <f>B13-$C13*B$21</f>
         <v>0</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <f>B14/$C14</f>
         <v>0</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="6">
         <f>B21/$F21</f>
         <v>0</v>
       </c>
